--- a/managementCommandsFiles/ListFormsMar6.xlsx
+++ b/managementCommandsFiles/ListFormsMar6.xlsx
@@ -1452,10 +1452,10 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.36"/>
@@ -1516,7 +1516,9 @@
         <v>90002</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="n">
+        <v>24</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
